--- a/live_data_example.xlsx
+++ b/live_data_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\William_live_plotter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F226D86-7D84-4D96-94FA-ED5CB8AA42BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378EC0BF-4071-41BB-A33E-907DB05E9475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8805" yWindow="1350" windowWidth="11505" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>Start</t>
   </si>
 </sst>
 </file>
@@ -345,222 +348,1727 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:B313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="A313" sqref="A313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B296">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
